--- a/data_hs21_pred/yogurt.xlsx
+++ b/data_hs21_pred/yogurt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hahn\Documents\Master\temp\test\yogurt-prediction\data_hs21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hahn\Documents\Master\temp\test\yogurt-prediction\data_hs21_pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E042AC-60FF-4E6A-8B20-500FC02E984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64FC969-BED2-47BE-A997-9035B31ACFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>datum</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>kon.yougurtpr.180.fru</t>
+  </si>
+  <si>
+    <t>08.21</t>
+  </si>
+  <si>
+    <t>09.21</t>
   </si>
 </sst>
 </file>
@@ -303,10 +309,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6109CA5-36FA-4C02-8489-7370C6C8B0F7}"/>
@@ -598,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,12 +1156,98 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="6">
         <v>0.52616734168235846</v>
       </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.5549400386924056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.5549400386924056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>